--- a/biology/Botanique/Massette_à_feuilles_étroites/Massette_à_feuilles_étroites.xlsx
+++ b/biology/Botanique/Massette_à_feuilles_étroites/Massette_à_feuilles_étroites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Massette_%C3%A0_feuilles_%C3%A9troites</t>
+          <t>Massette_à_feuilles_étroites</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Typha angustifolia
-La massette à feuilles étroites (Typha angustifolia), appelée aussi roseau à massette ou quenouille au Canada[1], est une plante de la famille des Typhaceae. Après Typha latifolia, c'est la plus commune du genre Typha.
-C'est une plante herbacée pérenne qui pousse dans les régions tempérées et tropicales de l'hémisphère nord. Elle comprend un rhizome stolonifère submergé et peut supporter des eaux légèrement saumâtres. La plante peut mesurer entre 1 et 3 m de haut, elle possède des feuilles alternes étroites de 3 à 10 mm, vert franc. L'inflorescence est formée de deux épis superposés espacés de 2 à 8 cm. L'épi mâle, au-dessus, est garni de poils roux plus longs que les étamines, tandis que l'épi femelle est cylindrique et grêle, brun-fauve (large à maturité de 1,5 à 2 cm au maximum)[2]. C'est une plante utile, entre autres, pour des mammifères semi-aquatiques (rats musqués par exemple).
+La massette à feuilles étroites (Typha angustifolia), appelée aussi roseau à massette ou quenouille au Canada, est une plante de la famille des Typhaceae. Après Typha latifolia, c'est la plus commune du genre Typha.
+C'est une plante herbacée pérenne qui pousse dans les régions tempérées et tropicales de l'hémisphère nord. Elle comprend un rhizome stolonifère submergé et peut supporter des eaux légèrement saumâtres. La plante peut mesurer entre 1 et 3 m de haut, elle possède des feuilles alternes étroites de 3 à 10 mm, vert franc. L'inflorescence est formée de deux épis superposés espacés de 2 à 8 cm. L'épi mâle, au-dessus, est garni de poils roux plus longs que les étamines, tandis que l'épi femelle est cylindrique et grêle, brun-fauve (large à maturité de 1,5 à 2 cm au maximum). C'est une plante utile, entre autres, pour des mammifères semi-aquatiques (rats musqués par exemple).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Massette_%C3%A0_feuilles_%C3%A9troites</t>
+          <t>Massette_à_feuilles_étroites</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : marron
